--- a/biology/Zoologie/Barbaracurus/Barbaracurus.xlsx
+++ b/biology/Zoologie/Barbaracurus/Barbaracurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbaracurus est un genre de scorpions de la famille des Buthidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique de l'Est, en Afrique de l'Ouest et en Arabie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique de l'Est, en Afrique de l'Ouest et en Arabie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (21/02/2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (21/02/2023) :
 Barbaracurus exquisitus (Lowe, 2000)
 Barbaracurus feti Kovařík, Lowe, Šťáhlavský &amp; Hurre, 2019
 Barbaracurus kabateki Kovařík, Lowe, Šťáhlavský &amp; Just, 2022
@@ -583,7 +599,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Kovařík, Lowe et Šťáhlavský en 2018 dans les Buthidae.
 </t>
@@ -614,9 +632,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Barbara York Main[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Barbara York Main.
 </t>
         </is>
       </c>
@@ -645,7 +665,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Kovařík, Lowe &amp; Šťáhlavský, 2018 : « Review of the genus Babycurus Karsch, 1886 (Arachnida, Scorpiones, Buthidae), with descriptions of Barbaracurus gen. n. and two new species from Oman and Yemen. » Euscorpius, no 267, p. 1-41 (texte intégral).</t>
         </is>
